--- a/datasets/total_cases_per_million.xlsx
+++ b/datasets/total_cases_per_million.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurovaratpatnaik/Documents/GitHub/kliffedge.github.io/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111C4DBA-FFC5-0C41-BDA4-5996D3FB6DCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A2140-2125-AC47-B1FE-75902D862530}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1409,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FZ153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="AY12" sqref="AY12"/>
+    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
+      <selection activeCell="CA12" sqref="CA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/datasets/total_cases_per_million.xlsx
+++ b/datasets/total_cases_per_million.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurovaratpatnaik/Documents/GitHub/kliffedge.github.io/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A2140-2125-AC47-B1FE-75902D862530}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF733373-34CB-514D-B542-8F97B8BDFE74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,6 +572,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1051,7 +1054,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1409,18 +1412,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FZ153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
-      <selection activeCell="CA12" sqref="CA12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="47" max="47" width="28.33203125" customWidth="1"/>
     <col min="175" max="175" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:182" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
